--- a/data_analyzed/Energy (kcal)/Energy (kcal)_games_3q.xlsx
+++ b/data_analyzed/Energy (kcal)/Energy (kcal)_games_3q.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:AF44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,114 +441,234 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Alexis Rainey</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Balduzzi</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Burns</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Curley</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Daud</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>DeLeo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Diedrichsen</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Doyle</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Espona</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Ferriolo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Forman</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Hackman</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Hartsch</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Holzman</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Hughes</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>LaCroix</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Larripa</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>McCann</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>McFadden</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Myers</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Pla</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Reilly</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Ricci</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Rodrigo</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Smyth</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Streib</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Tollaksen</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Wasyliw</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Yanovich</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>44801</v>
       </c>
       <c r="B2" t="n">
+        <v>89.7291</v>
+      </c>
+      <c r="C2" t="n">
         <v>193.545</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>6.9752</v>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>104.5505</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>198.7146</v>
+      </c>
       <c r="J2" t="n">
+        <v>150.176</v>
+      </c>
+      <c r="K2" t="n">
+        <v>104.5505</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>150.3657</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>202.6646</v>
+      </c>
+      <c r="P2" t="n">
+        <v>39.772</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>173.4687</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="n">
         <v>108.3463</v>
       </c>
-      <c r="K2" t="n">
+      <c r="U2" t="n">
+        <v>157.8606</v>
+      </c>
+      <c r="V2" t="n">
         <v>60.9791</v>
       </c>
-      <c r="L2" t="n">
+      <c r="W2" t="n">
+        <v>92.83199999999999</v>
+      </c>
+      <c r="X2" t="n">
         <v>179.1344</v>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="Y2" t="n">
+        <v>10.0426</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="n">
         <v>199.0937</v>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="n">
+        <v>205.6473</v>
+      </c>
+      <c r="AE2" t="n">
         <v>30.0108</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>109.6337</v>
       </c>
     </row>
     <row r="3">
@@ -556,35 +676,75 @@
         <v>44804</v>
       </c>
       <c r="B3" t="n">
+        <v>64.4278</v>
+      </c>
+      <c r="C3" t="n">
         <v>193.1112</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>5.0357</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>5.3488</v>
-      </c>
+      <c r="E3" t="n">
+        <v>62.1554</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>242.906</v>
+      </c>
       <c r="J3" t="n">
-        <v>112.6224</v>
+        <v>180.2788</v>
       </c>
       <c r="K3" t="n">
-        <v>4.0669</v>
-      </c>
-      <c r="L3" t="n">
-        <v>214.1159</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
-        <v>222.0695</v>
-      </c>
+        <v>5.3488</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>215.1101</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
+        <v>26.0504</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>222.579</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>112.6224</v>
+      </c>
+      <c r="U3" t="n">
+        <v>113.885</v>
+      </c>
+      <c r="V3" t="n">
+        <v>4.0669</v>
+      </c>
+      <c r="W3" t="n">
+        <v>204.0223</v>
+      </c>
+      <c r="X3" t="n">
+        <v>214.1159</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>5.0116</v>
+      </c>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="n">
+        <v>222.0695</v>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>208.1866</v>
+      </c>
+      <c r="AE3" t="n">
         <v>2.6383</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>75.3604</v>
       </c>
     </row>
     <row r="4">
@@ -592,35 +752,77 @@
         <v>44808</v>
       </c>
       <c r="B4" t="n">
+        <v>53.2169</v>
+      </c>
+      <c r="C4" t="n">
         <v>170.1378</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.4253</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>6.1266</v>
-      </c>
+      <c r="E4" t="n">
+        <v>37.5346</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>166.0363</v>
+      </c>
       <c r="J4" t="n">
+        <v>51.7318</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6.1266</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>146.5547</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>197.794</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.5592</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>169.7749</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="n">
         <v>151.3173</v>
       </c>
-      <c r="K4" t="n">
+      <c r="U4" t="n">
+        <v>177.258</v>
+      </c>
+      <c r="V4" t="n">
         <v>65.2822</v>
       </c>
-      <c r="L4" t="n">
+      <c r="W4" t="n">
+        <v>97.1776</v>
+      </c>
+      <c r="X4" t="n">
         <v>184.196</v>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="Y4" t="n">
+        <v>74.7979</v>
+      </c>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="n">
         <v>167.1184</v>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>172.6789</v>
+      </c>
+      <c r="AE4" t="n">
         <v>1.6503</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>138.7841</v>
       </c>
     </row>
     <row r="5">
@@ -628,313 +830,683 @@
         <v>44813</v>
       </c>
       <c r="B5" t="n">
+        <v>6.1933</v>
+      </c>
+      <c r="C5" t="n">
         <v>199.1633</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.8312</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>2.0084</v>
-      </c>
+      <c r="E5" t="n">
+        <v>48.4063</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>133.0881</v>
+      </c>
       <c r="J5" t="n">
+        <v>99.801</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.0084</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>178.3965</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>204.7593</v>
+      </c>
+      <c r="P5" t="n">
+        <v>8.017200000000001</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>215.697</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
         <v>157.152</v>
       </c>
-      <c r="K5" t="n">
+      <c r="U5" t="n">
+        <v>180.3367</v>
+      </c>
+      <c r="V5" t="n">
         <v>136.7779</v>
       </c>
-      <c r="L5" t="n">
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="n">
         <v>175.4096</v>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="Y5" t="n">
+        <v>6.6815</v>
+      </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="n">
         <v>224.3029</v>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="n">
+        <v>209.5779</v>
+      </c>
+      <c r="AE5" t="n">
         <v>50.2062</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>44815</v>
       </c>
       <c r="B6" t="n">
+        <v>53.3595</v>
+      </c>
+      <c r="C6" t="n">
         <v>220.9689</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>3.9568</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>25.0688</v>
-      </c>
+      <c r="E6" t="n">
+        <v>48.6289</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>199.9351</v>
+      </c>
       <c r="J6" t="n">
+        <v>123.6675</v>
+      </c>
+      <c r="K6" t="n">
+        <v>25.0688</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>99.8789</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>220.1616</v>
+      </c>
+      <c r="P6" t="n">
+        <v>24.0528</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>206.9461</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
         <v>255.1533</v>
       </c>
-      <c r="K6" t="n">
+      <c r="U6" t="n">
+        <v>110.0839</v>
+      </c>
+      <c r="V6" t="n">
         <v>275.5218</v>
       </c>
-      <c r="L6" t="n">
+      <c r="W6" t="n">
+        <v>167.2731</v>
+      </c>
+      <c r="X6" t="n">
         <v>193.5814</v>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="Y6" t="n">
+        <v>7.0372</v>
+      </c>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="n">
         <v>133.4249</v>
       </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="n">
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>12.0667</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>234.5088</v>
+      </c>
+      <c r="AE6" t="n">
         <v>96.2559</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>44820</v>
       </c>
       <c r="B7" t="n">
+        <v>5.3241</v>
+      </c>
+      <c r="C7" t="n">
         <v>231.3821</v>
       </c>
-      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>1.2798</v>
-      </c>
+      <c r="E7" t="n">
+        <v>70.342</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>289.6449</v>
+      </c>
       <c r="J7" t="n">
+        <v>127.8454</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.2798</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>76.0424</v>
+      </c>
+      <c r="P7" t="n">
+        <v>23.4034</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>242.7898</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
         <v>285.1269</v>
       </c>
-      <c r="K7" t="n">
+      <c r="U7" t="n">
+        <v>228.8221</v>
+      </c>
+      <c r="V7" t="n">
         <v>258.1515</v>
       </c>
-      <c r="L7" t="n">
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="n">
         <v>210.2421</v>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="Y7" t="n">
+        <v>8.7249</v>
+      </c>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="n">
         <v>229.0721</v>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="n">
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>275.0196</v>
+      </c>
+      <c r="AE7" t="n">
         <v>41.4355</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>44822</v>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>205.1751</v>
       </c>
-      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>14.9097</v>
-      </c>
+      <c r="E8" t="n">
+        <v>60.6362</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>148.0977</v>
+      </c>
       <c r="J8" t="n">
+        <v>91.87</v>
+      </c>
+      <c r="K8" t="n">
+        <v>14.9097</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>135.2884</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>207.9577</v>
+      </c>
+      <c r="P8" t="n">
+        <v>21.8288</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>218.7434</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
         <v>274.1478</v>
       </c>
-      <c r="K8" t="n">
+      <c r="U8" t="n">
+        <v>149.4307</v>
+      </c>
+      <c r="V8" t="n">
         <v>193.6032</v>
       </c>
-      <c r="L8" t="n">
+      <c r="W8" t="n">
+        <v>140.6754</v>
+      </c>
+      <c r="X8" t="n">
         <v>180.3323</v>
       </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="Y8" t="n">
+        <v>16.7012</v>
+      </c>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="n">
         <v>199.8107</v>
       </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="n">
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="n">
+        <v>21.7143</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>245.3338</v>
+      </c>
+      <c r="AE8" t="n">
         <v>28.7618</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>44827</v>
       </c>
       <c r="B9" t="n">
+        <v>250.0184</v>
+      </c>
+      <c r="C9" t="n">
         <v>226.2842</v>
       </c>
-      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>12.6653</v>
-      </c>
+      <c r="E9" t="n">
+        <v>48.2327</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>194.5252</v>
+      </c>
       <c r="J9" t="n">
+        <v>124.6909</v>
+      </c>
+      <c r="K9" t="n">
+        <v>12.6653</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>105.0308</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>277.3057</v>
+      </c>
+      <c r="P9" t="n">
+        <v>14.7144</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>198.6005</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
         <v>224.4754</v>
       </c>
-      <c r="K9" t="n">
+      <c r="U9" t="n">
+        <v>133.3291</v>
+      </c>
+      <c r="V9" t="n">
         <v>6.8282</v>
       </c>
-      <c r="L9" t="n">
+      <c r="W9" t="n">
+        <v>138.4219</v>
+      </c>
+      <c r="X9" t="n">
         <v>170.197</v>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="Y9" t="n">
+        <v>11.3645</v>
+      </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="n">
         <v>206.0696</v>
       </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="n">
+        <v>15.0571</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>218.6689</v>
+      </c>
+      <c r="AE9" t="n">
         <v>2.5785</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>44829</v>
       </c>
       <c r="B10" t="n">
+        <v>63.014</v>
+      </c>
+      <c r="C10" t="n">
         <v>237.1786</v>
       </c>
-      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>11.7218</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>80.663</v>
+      </c>
       <c r="J10" t="n">
+        <v>19.1044</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11.7218</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>13.5926</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="n">
+        <v>19.3786</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>247.6483</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
         <v>307.705</v>
       </c>
-      <c r="K10" t="n">
+      <c r="U10" t="n">
+        <v>116.4291</v>
+      </c>
+      <c r="V10" t="n">
         <v>276.1404</v>
       </c>
-      <c r="L10" t="n">
+      <c r="W10" t="n">
+        <v>249.7953</v>
+      </c>
+      <c r="X10" t="n">
         <v>218.6863</v>
       </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="Y10" t="n">
+        <v>21.905</v>
+      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="n">
         <v>234.603</v>
       </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="n">
+        <v>23.5361</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>288.8535</v>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>44834</v>
       </c>
       <c r="B11" t="n">
+        <v>11.2728</v>
+      </c>
+      <c r="C11" t="n">
         <v>231.7011</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>50.1365</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>12.7902</v>
-      </c>
+      <c r="E11" t="n">
+        <v>60.7973</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>169.5595</v>
+      </c>
       <c r="J11" t="n">
+        <v>72.95359999999999</v>
+      </c>
+      <c r="K11" t="n">
+        <v>12.7902</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>108.1493</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>273.7249</v>
+      </c>
+      <c r="P11" t="n">
+        <v>23.5089</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>212.4583</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
         <v>209.8617</v>
       </c>
-      <c r="K11" t="n">
+      <c r="U11" t="n">
+        <v>34.3571</v>
+      </c>
+      <c r="V11" t="n">
         <v>253.1897</v>
       </c>
-      <c r="L11" t="n">
+      <c r="W11" t="n">
+        <v>253.2526</v>
+      </c>
+      <c r="X11" t="n">
         <v>208.4119</v>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="Y11" t="n">
+        <v>16.1925</v>
+      </c>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="n">
         <v>214.1181</v>
       </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="n">
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="n">
+        <v>14.3004</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>224.0043</v>
+      </c>
+      <c r="AE11" t="n">
         <v>85.8158</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>44836</v>
       </c>
       <c r="B12" t="n">
+        <v>223.5004</v>
+      </c>
+      <c r="C12" t="n">
         <v>225.47</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>15.3441</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>22.6307</v>
-      </c>
+      <c r="E12" t="n">
+        <v>54.8757</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>276.1273</v>
+      </c>
       <c r="J12" t="n">
+        <v>205.095</v>
+      </c>
+      <c r="K12" t="n">
+        <v>22.6307</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>115.1457</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>156.5968</v>
+      </c>
+      <c r="P12" t="n">
+        <v>17.292</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>249.9727</v>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="n">
         <v>294.852</v>
       </c>
-      <c r="K12" t="n">
+      <c r="U12" t="n">
+        <v>105.9517</v>
+      </c>
+      <c r="V12" t="n">
         <v>60.8543</v>
       </c>
-      <c r="L12" t="n">
+      <c r="W12" t="n">
+        <v>13.3377</v>
+      </c>
+      <c r="X12" t="n">
         <v>195.8236</v>
       </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="Y12" t="n">
+        <v>15.4932</v>
+      </c>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="n">
         <v>194.9244</v>
       </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="n">
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="n">
+        <v>18.601</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>253.0736</v>
+      </c>
+      <c r="AE12" t="n">
         <v>48.0227</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>44841</v>
       </c>
       <c r="B13" t="n">
+        <v>253.3043</v>
+      </c>
+      <c r="C13" t="n">
         <v>216.3046</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>19.1759</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>5.6853</v>
-      </c>
+      <c r="E13" t="n">
+        <v>53.5705</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>195.6431</v>
+      </c>
       <c r="J13" t="n">
+        <v>73.4495</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5.6853</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>68.5108</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>212.4562</v>
+      </c>
+      <c r="P13" t="n">
+        <v>16.9554</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>150.1013</v>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="n">
         <v>260.9585</v>
       </c>
-      <c r="K13" t="n">
+      <c r="U13" t="n">
+        <v>89.7259</v>
+      </c>
+      <c r="V13" t="n">
         <v>54.385</v>
       </c>
-      <c r="L13" t="n">
+      <c r="W13" t="n">
+        <v>80.7466</v>
+      </c>
+      <c r="X13" t="n">
         <v>187.0295</v>
       </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="Y13" t="n">
+        <v>14.0487</v>
+      </c>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="n">
         <v>187.6265</v>
       </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="n">
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="n">
+        <v>13.8396</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>231.0262</v>
+      </c>
+      <c r="AE13" t="n">
         <v>71.8103</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>3.691</v>
       </c>
     </row>
     <row r="14">
@@ -942,35 +1514,79 @@
         <v>44843</v>
       </c>
       <c r="B14" t="n">
+        <v>213.2352</v>
+      </c>
+      <c r="C14" t="n">
         <v>220.9995</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>27.7235</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>15.7341</v>
-      </c>
+      <c r="E14" t="n">
+        <v>66.15519999999999</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>173.1844</v>
+      </c>
       <c r="J14" t="n">
+        <v>14.2481</v>
+      </c>
+      <c r="K14" t="n">
+        <v>15.7341</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>77.28570000000001</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>277.3924</v>
+      </c>
+      <c r="P14" t="n">
+        <v>30.6277</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>182.4362</v>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="n">
         <v>279.5114</v>
       </c>
-      <c r="K14" t="n">
+      <c r="U14" t="n">
+        <v>209.3483</v>
+      </c>
+      <c r="V14" t="n">
         <v>63.1332</v>
       </c>
-      <c r="L14" t="n">
+      <c r="W14" t="n">
+        <v>136.2686</v>
+      </c>
+      <c r="X14" t="n">
         <v>188.5583</v>
       </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="Y14" t="n">
+        <v>21.1141</v>
+      </c>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="n">
         <v>187.8997</v>
       </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="n">
+        <v>27.4877</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>237.8584</v>
+      </c>
+      <c r="AE14" t="n">
         <v>28.7574</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>57.9748</v>
       </c>
     </row>
     <row r="15">
@@ -978,71 +1594,157 @@
         <v>44848</v>
       </c>
       <c r="B15" t="n">
+        <v>10.383</v>
+      </c>
+      <c r="C15" t="n">
         <v>193.5298</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>3.8088</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>5.3754</v>
-      </c>
+      <c r="E15" t="n">
+        <v>37.7183</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>243.6911</v>
+      </c>
       <c r="J15" t="n">
+        <v>93.9847</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5.3754</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>80.33799999999999</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>227.1963</v>
+      </c>
+      <c r="P15" t="n">
+        <v>10.382</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="n">
         <v>237.7148</v>
       </c>
-      <c r="K15" t="n">
+      <c r="U15" t="n">
+        <v>159.8687</v>
+      </c>
+      <c r="V15" t="n">
         <v>29.2929</v>
       </c>
-      <c r="L15" t="n">
+      <c r="W15" t="n">
+        <v>143.8506</v>
+      </c>
+      <c r="X15" t="n">
         <v>164.9578</v>
       </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="Y15" t="n">
+        <v>4.985</v>
+      </c>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="n">
         <v>187.5217</v>
       </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="n">
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="n">
+        <v>9.0885</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>218.6162</v>
+      </c>
+      <c r="AE15" t="n">
         <v>46.9583</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1.9573</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>44850</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="n">
         <v>238.1515</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>10.3689</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>14.5495</v>
-      </c>
+      <c r="E16" t="n">
+        <v>71.79689999999999</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>7.1798</v>
+      </c>
       <c r="J16" t="n">
+        <v>166.6491</v>
+      </c>
+      <c r="K16" t="n">
+        <v>14.5495</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>52.6997</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>253.9209</v>
+      </c>
+      <c r="P16" t="n">
+        <v>19.7793</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>218.2713</v>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="n">
         <v>302.2012</v>
       </c>
-      <c r="K16" t="n">
+      <c r="U16" t="n">
+        <v>220.4367</v>
+      </c>
+      <c r="V16" t="n">
         <v>4.0748</v>
       </c>
-      <c r="L16" t="n">
+      <c r="W16" t="n">
+        <v>273.3204</v>
+      </c>
+      <c r="X16" t="n">
         <v>186.0685</v>
       </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="Y16" t="n">
+        <v>14.283</v>
+      </c>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="n">
         <v>202.216</v>
       </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="n">
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="n">
+        <v>15.3583</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>257.4254</v>
+      </c>
+      <c r="AE16" t="n">
         <v>82.0813</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>8.2136</v>
       </c>
     </row>
     <row r="17">
@@ -1050,35 +1752,79 @@
         <v>44855</v>
       </c>
       <c r="B17" t="n">
+        <v>224.7315</v>
+      </c>
+      <c r="C17" t="n">
         <v>202.5692</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>16.9282</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>5.5386</v>
-      </c>
+      <c r="E17" t="n">
+        <v>42.2615</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>6.3803</v>
+      </c>
       <c r="J17" t="n">
+        <v>50.4939</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5.5386</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>81.8523</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>161.5968</v>
+      </c>
+      <c r="P17" t="n">
+        <v>18.4543</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>167.2194</v>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="n">
         <v>246.8585</v>
       </c>
-      <c r="K17" t="n">
+      <c r="U17" t="n">
+        <v>65.9539</v>
+      </c>
+      <c r="V17" t="n">
         <v>5.4501</v>
       </c>
-      <c r="L17" t="n">
+      <c r="W17" t="n">
+        <v>229.7655</v>
+      </c>
+      <c r="X17" t="n">
         <v>182.4903</v>
       </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="Y17" t="n">
+        <v>10.7601</v>
+      </c>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="n">
         <v>184.0894</v>
       </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="n">
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="n">
+        <v>5.1802</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>228.4381</v>
+      </c>
+      <c r="AE17" t="n">
         <v>56.4568</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>124.2186</v>
       </c>
     </row>
     <row r="18">
@@ -1086,35 +1832,77 @@
         <v>44862</v>
       </c>
       <c r="B18" t="n">
+        <v>230.4302</v>
+      </c>
+      <c r="C18" t="n">
         <v>233.7674</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>22.7389</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>11.92</v>
-      </c>
+      <c r="E18" t="n">
+        <v>61.3994</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>231.655</v>
+      </c>
       <c r="J18" t="n">
+        <v>8.3957</v>
+      </c>
+      <c r="K18" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>6.9258</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>257.3266</v>
+      </c>
+      <c r="P18" t="n">
+        <v>12.2086</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>205.8427</v>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="n">
         <v>261.8474</v>
       </c>
-      <c r="K18" t="n">
+      <c r="U18" t="n">
+        <v>96.9391</v>
+      </c>
+      <c r="V18" t="n">
         <v>4.8279</v>
       </c>
-      <c r="L18" t="n">
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="n">
         <v>231.8098</v>
       </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="Y18" t="n">
+        <v>6.5204</v>
+      </c>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="n">
         <v>224.832</v>
       </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="n">
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="n">
+        <v>12.8433</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>270.2161</v>
+      </c>
+      <c r="AE18" t="n">
         <v>24.132</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>4.9754</v>
       </c>
     </row>
     <row r="19">
@@ -1122,1058 +1910,1760 @@
         <v>44864</v>
       </c>
       <c r="B19" t="n">
+        <v>225.0133</v>
+      </c>
+      <c r="C19" t="n">
         <v>220.131</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>9.7453</v>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>14.7055</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>223.6856</v>
+      </c>
       <c r="J19" t="n">
+        <v>11.3255</v>
+      </c>
+      <c r="K19" t="n">
+        <v>14.7055</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>8.2499</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>267.7942</v>
+      </c>
+      <c r="P19" t="n">
+        <v>11.4201</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>214.8586</v>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="n">
         <v>230.6527</v>
       </c>
-      <c r="K19" t="n">
+      <c r="U19" t="n">
+        <v>44.5867</v>
+      </c>
+      <c r="V19" t="n">
         <v>95.265</v>
       </c>
-      <c r="L19" t="n">
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="n">
         <v>195.9098</v>
       </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="Y19" t="n">
+        <v>12.0839</v>
+      </c>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="n">
         <v>215.7859</v>
       </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="n">
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="n">
+        <v>38.4492</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>202.9434</v>
+      </c>
+      <c r="AE19" t="n">
         <v>90.3659</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>5.5636</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>45010</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="n">
         <v>178.9021</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>123.917</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>138.4895</v>
-      </c>
+      <c r="E20" t="n">
+        <v>60.5703</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>214.1207</v>
+      </c>
       <c r="J20" t="n">
+        <v>195.0263</v>
+      </c>
+      <c r="K20" t="n">
+        <v>138.4895</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="n">
+        <v>177.7389</v>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="n">
         <v>218.5362</v>
       </c>
-      <c r="K20" t="n">
+      <c r="U20" t="n">
+        <v>176.0722</v>
+      </c>
+      <c r="V20" t="n">
         <v>150.0664</v>
       </c>
-      <c r="L20" t="n">
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="n">
         <v>171.3558</v>
       </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="n">
         <v>175.2127</v>
       </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="n">
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="n">
+        <v>20.5643</v>
+      </c>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="n">
         <v>59.2868</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>45035</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
         <v>172.6689</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>199.8939</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
+      <c r="E21" t="n">
+        <v>44.3964</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>147.9212</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
         <v>0</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>165.6525</v>
+      </c>
+      <c r="X21" t="n">
         <v>153.1111</v>
       </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="n">
         <v>0</v>
       </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="n">
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="n">
         <v>0</v>
       </c>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>45156</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
         <v>199.2766</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>82.2775</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>149.4206</v>
+      </c>
+      <c r="G22" t="n">
         <v>114.542</v>
       </c>
-      <c r="E22" t="n">
+      <c r="H22" t="n">
         <v>119.9076</v>
       </c>
-      <c r="F22" t="n">
+      <c r="I22" t="n">
+        <v>155.9391</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5.9581</v>
+      </c>
+      <c r="K22" t="n">
         <v>124.0041</v>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>67.232</v>
       </c>
-      <c r="I22" t="n">
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>114.7942</v>
+      </c>
+      <c r="R22" t="n">
         <v>102.3376</v>
       </c>
-      <c r="J22" t="n">
+      <c r="S22" t="n">
+        <v>189.3031</v>
+      </c>
+      <c r="T22" t="n">
         <v>245.8754</v>
       </c>
-      <c r="K22" t="n">
+      <c r="U22" t="n">
+        <v>91.23090000000001</v>
+      </c>
+      <c r="V22" t="n">
         <v>45.221</v>
       </c>
-      <c r="L22" t="n">
+      <c r="W22" t="n">
+        <v>129.9459</v>
+      </c>
+      <c r="X22" t="n">
         <v>115.8353</v>
       </c>
-      <c r="M22" t="n">
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="n">
         <v>70.8329</v>
       </c>
-      <c r="N22" t="n">
+      <c r="AA22" t="n">
         <v>156.5504</v>
       </c>
-      <c r="O22" t="n">
+      <c r="AB22" t="n">
         <v>126.661</v>
       </c>
-      <c r="P22" t="n">
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="n">
         <v>29.3659</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>45159</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
         <v>203.5392</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>8.4701</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>154.7704</v>
+      </c>
+      <c r="G23" t="n">
         <v>7.1274</v>
       </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
         <v>12.2074</v>
       </c>
-      <c r="F23" t="n">
+      <c r="I23" t="n">
+        <v>218.6094</v>
+      </c>
+      <c r="J23" t="n">
+        <v>138.1792</v>
+      </c>
+      <c r="K23" t="n">
         <v>11.1942</v>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>216.8905</v>
       </c>
-      <c r="I23" t="n">
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="n">
+        <v>151.9664</v>
+      </c>
+      <c r="R23" t="n">
         <v>64.12269999999999</v>
       </c>
-      <c r="J23" t="n">
+      <c r="S23" t="n">
+        <v>259.2575</v>
+      </c>
+      <c r="T23" t="n">
         <v>204.0231</v>
       </c>
-      <c r="K23" t="n">
+      <c r="U23" t="n">
+        <v>59.8115</v>
+      </c>
+      <c r="V23" t="n">
         <v>114.5187</v>
       </c>
-      <c r="L23" t="n">
+      <c r="W23" t="n">
+        <v>220.2491</v>
+      </c>
+      <c r="X23" t="n">
         <v>135.5402</v>
       </c>
-      <c r="M23" t="n">
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="n">
         <v>115.3465</v>
       </c>
-      <c r="N23" t="n">
+      <c r="AA23" t="n">
         <v>161.5477</v>
       </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="n">
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="n">
         <v>3.572</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>45163</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="n">
         <v>215.92</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>14.0024</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>309.022</v>
+      </c>
+      <c r="G24" t="n">
         <v>13.8541</v>
       </c>
-      <c r="E24" t="n">
+      <c r="H24" t="n">
         <v>21.3833</v>
       </c>
-      <c r="F24" t="n">
+      <c r="I24" t="n">
+        <v>228.8159</v>
+      </c>
+      <c r="J24" t="n">
+        <v>136.1247</v>
+      </c>
+      <c r="K24" t="n">
         <v>13.1644</v>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>239.9492</v>
       </c>
-      <c r="I24" t="n">
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="n">
+        <v>234.9005</v>
+      </c>
+      <c r="R24" t="n">
         <v>23.6824</v>
       </c>
-      <c r="J24" t="n">
+      <c r="S24" t="n">
+        <v>258.9522</v>
+      </c>
+      <c r="T24" t="n">
         <v>267.6503</v>
       </c>
-      <c r="K24" t="n">
+      <c r="U24" t="n">
+        <v>14.8831</v>
+      </c>
+      <c r="V24" t="n">
         <v>88.654</v>
       </c>
-      <c r="L24" t="n">
+      <c r="W24" t="n">
+        <v>134.6034</v>
+      </c>
+      <c r="X24" t="n">
         <v>216.762</v>
       </c>
-      <c r="M24" t="n">
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="n">
         <v>17.4991</v>
       </c>
-      <c r="N24" t="n">
+      <c r="AA24" t="n">
         <v>196.0701</v>
       </c>
-      <c r="O24" t="n">
+      <c r="AB24" t="n">
         <v>175.2478</v>
       </c>
-      <c r="P24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>45165</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
         <v>202.7703</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>268.0084</v>
+      </c>
+      <c r="G25" t="n">
         <v>7.478</v>
       </c>
-      <c r="E25" t="n">
+      <c r="H25" t="n">
         <v>35.602</v>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
+        <v>219.9156</v>
+      </c>
+      <c r="J25" t="n">
+        <v>157.6809</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>197.6199</v>
       </c>
-      <c r="I25" t="n">
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>169.0101</v>
+      </c>
+      <c r="R25" t="n">
         <v>9.927099999999999</v>
       </c>
-      <c r="J25" t="n">
+      <c r="S25" t="n">
+        <v>274.3927</v>
+      </c>
+      <c r="T25" t="n">
         <v>255.4646</v>
       </c>
-      <c r="K25" t="n">
+      <c r="U25" t="n">
+        <v>136.9089</v>
+      </c>
+      <c r="V25" t="n">
         <v>162.1218</v>
       </c>
-      <c r="L25" t="n">
+      <c r="W25" t="n">
+        <v>134.909</v>
+      </c>
+      <c r="X25" t="n">
         <v>193.6817</v>
       </c>
-      <c r="M25" t="n">
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="n">
         <v>168.4966</v>
       </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="n">
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="n">
         <v>110.0772</v>
       </c>
-      <c r="P25" t="n">
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="n">
         <v>3.4381</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>45170</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
         <v>180.9547</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>3.9194</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>225.2812</v>
+      </c>
+      <c r="G26" t="n">
         <v>5.7569</v>
       </c>
-      <c r="E26" t="n">
+      <c r="H26" t="n">
         <v>10.0419</v>
       </c>
-      <c r="F26" t="n">
+      <c r="I26" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>190.8146</v>
+      </c>
+      <c r="K26" t="n">
         <v>4.5657</v>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>206.4509</v>
       </c>
-      <c r="I26" t="n">
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>181.2501</v>
+      </c>
+      <c r="R26" t="n">
         <v>15.4597</v>
       </c>
-      <c r="J26" t="n">
+      <c r="S26" t="n">
+        <v>279.4656</v>
+      </c>
+      <c r="T26" t="n">
         <v>226.2673</v>
       </c>
-      <c r="K26" t="n">
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="n">
         <v>4.3899</v>
       </c>
-      <c r="L26" t="n">
+      <c r="W26" t="n">
+        <v>76.20910000000001</v>
+      </c>
+      <c r="X26" t="n">
         <v>173.5508</v>
       </c>
-      <c r="M26" t="n">
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="n">
         <v>223.1468</v>
       </c>
-      <c r="N26" t="n">
+      <c r="AA26" t="n">
         <v>157.9201</v>
       </c>
-      <c r="O26" t="n">
+      <c r="AB26" t="n">
         <v>160.9349</v>
       </c>
-      <c r="P26" t="n">
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="n">
         <v>1.2206</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>45172</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
         <v>174.2567</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>6.9765</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>104.7024</v>
+      </c>
+      <c r="G27" t="n">
         <v>96.4372</v>
       </c>
-      <c r="E27" t="n">
+      <c r="H27" t="n">
         <v>44.2909</v>
       </c>
-      <c r="F27" t="n">
+      <c r="I27" t="n">
+        <v>145.8403</v>
+      </c>
+      <c r="J27" t="n">
+        <v>154.3314</v>
+      </c>
+      <c r="K27" t="n">
         <v>6.5017</v>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>99.9195</v>
       </c>
-      <c r="I27" t="n">
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="n">
+        <v>124.952</v>
+      </c>
+      <c r="R27" t="n">
         <v>15.8691</v>
       </c>
-      <c r="J27" t="n">
+      <c r="S27" t="n">
+        <v>286.1405</v>
+      </c>
+      <c r="T27" t="n">
         <v>241.015</v>
       </c>
-      <c r="K27" t="n">
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="n">
         <v>46.2535</v>
       </c>
-      <c r="L27" t="n">
+      <c r="W27" t="n">
+        <v>283.2705</v>
+      </c>
+      <c r="X27" t="n">
         <v>204.5395</v>
       </c>
-      <c r="M27" t="n">
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="n">
         <v>239.4767</v>
       </c>
-      <c r="N27" t="n">
+      <c r="AA27" t="n">
         <v>88.8931</v>
       </c>
-      <c r="O27" t="n">
+      <c r="AB27" t="n">
         <v>225.4176</v>
       </c>
-      <c r="P27" t="n">
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="n">
         <v>2.4487</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>45177</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
         <v>183.3381</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="n">
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>225.1061</v>
+      </c>
+      <c r="G28" t="n">
         <v>5.2156</v>
       </c>
-      <c r="E28" t="n">
+      <c r="H28" t="n">
         <v>7.7286</v>
       </c>
-      <c r="F28" t="n">
+      <c r="I28" t="n">
+        <v>127.8667</v>
+      </c>
+      <c r="J28" t="n">
+        <v>174.0366</v>
+      </c>
+      <c r="K28" t="n">
         <v>34.3123</v>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>210.2917</v>
       </c>
-      <c r="I28" t="n">
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="n">
+        <v>133.9562</v>
+      </c>
+      <c r="R28" t="n">
         <v>13.693</v>
       </c>
-      <c r="J28" t="n">
+      <c r="S28" t="n">
+        <v>264.5688</v>
+      </c>
+      <c r="T28" t="n">
         <v>235.1986</v>
       </c>
-      <c r="K28" t="n">
+      <c r="U28" t="n">
+        <v>4.703</v>
+      </c>
+      <c r="V28" t="n">
         <v>2.1368</v>
       </c>
-      <c r="L28" t="n">
+      <c r="W28" t="n">
+        <v>93.7148</v>
+      </c>
+      <c r="X28" t="n">
         <v>170.7644</v>
       </c>
-      <c r="M28" t="n">
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="n">
         <v>205.3723</v>
       </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="n">
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="n">
         <v>152.6136</v>
       </c>
-      <c r="P28" t="n">
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="n">
         <v>15.4809</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>45179</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
         <v>290.0722</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>12.2469</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>351.0248</v>
+      </c>
+      <c r="G29" t="n">
         <v>14.4628</v>
       </c>
-      <c r="E29" t="n">
+      <c r="H29" t="n">
         <v>16.4754</v>
       </c>
-      <c r="F29" t="n">
+      <c r="I29" t="n">
+        <v>105.7666</v>
+      </c>
+      <c r="J29" t="n">
+        <v>281.9731</v>
+      </c>
+      <c r="K29" t="n">
         <v>11.3033</v>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>303.9998</v>
       </c>
-      <c r="I29" t="n">
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="n">
         <v>26.6464</v>
       </c>
-      <c r="J29" t="n">
+      <c r="S29" t="n">
+        <v>331.0473</v>
+      </c>
+      <c r="T29" t="n">
         <v>304.8763</v>
       </c>
-      <c r="K29" t="n">
+      <c r="U29" t="n">
+        <v>10.967</v>
+      </c>
+      <c r="V29" t="n">
         <v>82.23909999999999</v>
       </c>
-      <c r="L29" t="n">
+      <c r="W29" t="n">
+        <v>105.2947</v>
+      </c>
+      <c r="X29" t="n">
         <v>305.2382</v>
       </c>
-      <c r="M29" t="n">
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="n">
         <v>189.2234</v>
       </c>
-      <c r="N29" t="n">
+      <c r="AA29" t="n">
         <v>281.23</v>
       </c>
-      <c r="O29" t="n">
+      <c r="AB29" t="n">
         <v>258.3849</v>
       </c>
-      <c r="P29" t="n">
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="n">
         <v>5.8278</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>45184</v>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="n">
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="n">
         <v>6.6975</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>212.7742</v>
+      </c>
+      <c r="G30" t="n">
         <v>5.2371</v>
       </c>
-      <c r="E30" t="n">
+      <c r="H30" t="n">
         <v>8.443199999999999</v>
       </c>
-      <c r="F30" t="n">
+      <c r="I30" t="n">
+        <v>120.7886</v>
+      </c>
+      <c r="J30" t="n">
+        <v>112.0187</v>
+      </c>
+      <c r="K30" t="n">
         <v>7.0603</v>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>226.0883</v>
       </c>
-      <c r="I30" t="n">
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="n">
         <v>13.0557</v>
       </c>
-      <c r="J30" t="n">
+      <c r="S30" t="n">
+        <v>282.831</v>
+      </c>
+      <c r="T30" t="n">
         <v>228.7863</v>
       </c>
-      <c r="K30" t="n">
+      <c r="U30" t="n">
+        <v>40.6894</v>
+      </c>
+      <c r="V30" t="n">
         <v>65.8963</v>
       </c>
-      <c r="L30" t="n">
+      <c r="W30" t="n">
+        <v>190.0732</v>
+      </c>
+      <c r="X30" t="n">
         <v>228.3897</v>
       </c>
-      <c r="M30" t="n">
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="n">
         <v>4.1756</v>
       </c>
-      <c r="N30" t="n">
+      <c r="AA30" t="n">
         <v>151.1472</v>
       </c>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="n">
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="n">
         <v>42.6513</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>45186</v>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="n">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="n">
         <v>12.1319</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>228.4997</v>
+      </c>
+      <c r="G31" t="n">
         <v>10.1339</v>
       </c>
-      <c r="E31" t="n">
+      <c r="H31" t="n">
         <v>16.0847</v>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
+        <v>80.9671</v>
+      </c>
+      <c r="J31" t="n">
+        <v>151.22</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>228.0798</v>
       </c>
-      <c r="I31" t="n">
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="n">
         <v>25.5379</v>
       </c>
-      <c r="J31" t="n">
+      <c r="S31" t="n">
+        <v>286.0221</v>
+      </c>
+      <c r="T31" t="n">
         <v>263.6792</v>
       </c>
-      <c r="K31" t="n">
+      <c r="U31" t="n">
+        <v>81.4171</v>
+      </c>
+      <c r="V31" t="n">
         <v>90.76909999999999</v>
       </c>
-      <c r="L31" t="n">
+      <c r="W31" t="n">
+        <v>97.0215</v>
+      </c>
+      <c r="X31" t="n">
         <v>215.0443</v>
       </c>
-      <c r="M31" t="n">
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="n">
         <v>248.7314</v>
       </c>
-      <c r="N31" t="n">
+      <c r="AA31" t="n">
         <v>226.4295</v>
       </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="n">
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="n">
         <v>34.4007</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>45191</v>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="n">
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="n">
         <v>66.9614</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>260.9145</v>
+      </c>
+      <c r="G32" t="n">
         <v>9.1602</v>
       </c>
-      <c r="E32" t="n">
+      <c r="H32" t="n">
         <v>11.1889</v>
       </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
+        <v>101.6004</v>
+      </c>
+      <c r="J32" t="n">
+        <v>107.6984</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>200.3786</v>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="n">
+        <v>162.8017</v>
+      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="n">
+        <v>283.5292</v>
+      </c>
+      <c r="T32" t="n">
         <v>241.8986</v>
       </c>
-      <c r="K32" t="n">
+      <c r="U32" t="n">
+        <v>74.4032</v>
+      </c>
+      <c r="V32" t="n">
         <v>131.5276</v>
       </c>
-      <c r="L32" t="n">
+      <c r="W32" t="n">
+        <v>149.7445</v>
+      </c>
+      <c r="X32" t="n">
         <v>200.9592</v>
       </c>
-      <c r="M32" t="n">
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="n">
         <v>0</v>
       </c>
-      <c r="N32" t="n">
+      <c r="AA32" t="n">
         <v>116.4272</v>
       </c>
-      <c r="O32" t="n">
+      <c r="AB32" t="n">
         <v>190.8869</v>
       </c>
-      <c r="P32" t="n">
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="n">
         <v>7.9197</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>45198</v>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="n">
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="n">
         <v>105.5909</v>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>193.9971</v>
+      </c>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="n">
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>154.4185</v>
+      </c>
+      <c r="J33" t="n">
+        <v>141.8944</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>214.8033</v>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="n">
+        <v>208.2796</v>
+      </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="n">
+        <v>277.2251</v>
+      </c>
+      <c r="T33" t="n">
         <v>241.3366</v>
       </c>
-      <c r="K33" t="n">
+      <c r="U33" t="n">
+        <v>6.3328</v>
+      </c>
+      <c r="V33" t="n">
         <v>87.52549999999999</v>
       </c>
-      <c r="L33" t="n">
+      <c r="W33" t="n">
+        <v>130.5533</v>
+      </c>
+      <c r="X33" t="n">
         <v>224.2344</v>
       </c>
-      <c r="M33" t="n">
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="n">
         <v>248.8205</v>
       </c>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="n">
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="n">
         <v>201.1263</v>
       </c>
-      <c r="P33" t="n">
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="n">
         <v>2.5491</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>45200</v>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="n">
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="n">
         <v>211.2027</v>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>193.6481</v>
+      </c>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="n">
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>149.7168</v>
+      </c>
+      <c r="J34" t="n">
+        <v>36.4873</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>189.5782</v>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="n">
+        <v>238.4155</v>
+      </c>
+      <c r="T34" t="n">
         <v>125.3692</v>
       </c>
-      <c r="K34" t="n">
+      <c r="U34" t="n">
+        <v>141.1084</v>
+      </c>
+      <c r="V34" t="n">
         <v>178.5098</v>
       </c>
-      <c r="L34" t="n">
+      <c r="W34" t="n">
+        <v>201.0461</v>
+      </c>
+      <c r="X34" t="n">
         <v>147.7111</v>
       </c>
-      <c r="M34" t="n">
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="n">
         <v>207.5638</v>
       </c>
-      <c r="N34" t="n">
+      <c r="AA34" t="n">
         <v>197.8093</v>
       </c>
-      <c r="O34" t="n">
+      <c r="AB34" t="n">
         <v>116.3089</v>
       </c>
-      <c r="P34" t="n">
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="n">
         <v>58.1132</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>45205</v>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="n">
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="n">
         <v>6.4</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>255.6015</v>
+      </c>
+      <c r="G35" t="n">
         <v>5.5529</v>
       </c>
-      <c r="E35" t="n">
+      <c r="H35" t="n">
         <v>9.115500000000001</v>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
+        <v>109.8534</v>
+      </c>
+      <c r="J35" t="n">
+        <v>212.2679</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>220.0358</v>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="n">
+        <v>211.23</v>
+      </c>
+      <c r="T35" t="n">
         <v>276.3021</v>
       </c>
-      <c r="K35" t="n">
+      <c r="U35" t="n">
+        <v>11.8565</v>
+      </c>
+      <c r="V35" t="n">
         <v>33.5771</v>
       </c>
-      <c r="L35" t="n">
+      <c r="W35" t="n">
+        <v>148.3413</v>
+      </c>
+      <c r="X35" t="n">
         <v>232.9418</v>
       </c>
-      <c r="M35" t="n">
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="n">
         <v>258.3055</v>
       </c>
-      <c r="N35" t="n">
+      <c r="AA35" t="n">
         <v>251.5971</v>
       </c>
-      <c r="O35" t="n">
+      <c r="AB35" t="n">
         <v>258.8489</v>
       </c>
-      <c r="P35" t="n">
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="n">
         <v>40.5369</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>45207</v>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="n">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="n">
         <v>10.5</v>
       </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="n">
-        <v>12.2706</v>
-      </c>
-      <c r="F36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>230.5726</v>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
+        <v>12.2706</v>
+      </c>
+      <c r="I36" t="n">
+        <v>75.6917</v>
+      </c>
+      <c r="J36" t="n">
+        <v>109.7579</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>237.1982</v>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>328.7813</v>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="n">
         <v>175.3791</v>
       </c>
-      <c r="L36" t="n">
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="n">
         <v>215.91</v>
       </c>
-      <c r="M36" t="n">
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="n">
         <v>282.8162</v>
       </c>
-      <c r="N36" t="n">
+      <c r="AA36" t="n">
         <v>250.0711</v>
       </c>
-      <c r="O36" t="n">
+      <c r="AB36" t="n">
         <v>228.978</v>
       </c>
-      <c r="P36" t="n">
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="n">
         <v>56.6353</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>45212</v>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="n">
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="n">
         <v>69.3963</v>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>183.5361</v>
+      </c>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>98.38500000000001</v>
+      </c>
+      <c r="J37" t="n">
+        <v>173.8944</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>180.1245</v>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="n">
+        <v>279.0729</v>
+      </c>
+      <c r="T37" t="n">
         <v>173.8742</v>
       </c>
-      <c r="K37" t="n">
+      <c r="U37" t="n">
+        <v>71.37130000000001</v>
+      </c>
+      <c r="V37" t="n">
         <v>119.2563</v>
       </c>
-      <c r="L37" t="n">
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="n">
         <v>217.4348</v>
       </c>
-      <c r="M37" t="n">
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="n">
         <v>210.9971</v>
       </c>
-      <c r="N37" t="n">
+      <c r="AA37" t="n">
         <v>197.6215</v>
       </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="n">
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="n">
         <v>26.3487</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>45219</v>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="n">
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="n">
         <v>19.5686</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>35.9184</v>
+      </c>
+      <c r="G38" t="n">
         <v>21.9224</v>
       </c>
-      <c r="E38" t="n">
+      <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
+        <v>20.0796</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>198.1384</v>
       </c>
-      <c r="I38" t="n">
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
+      <c r="S38" t="n">
+        <v>272.0392</v>
+      </c>
+      <c r="T38" t="n">
         <v>230.1044</v>
       </c>
-      <c r="K38" t="n">
+      <c r="U38" t="n">
+        <v>25.7032</v>
+      </c>
+      <c r="V38" t="n">
         <v>130.585</v>
       </c>
-      <c r="L38" t="n">
+      <c r="W38" t="n">
+        <v>19.6318</v>
+      </c>
+      <c r="X38" t="n">
         <v>200.2697</v>
       </c>
-      <c r="M38" t="n">
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="n">
         <v>221.2131</v>
       </c>
-      <c r="N38" t="n">
+      <c r="AA38" t="n">
         <v>195.209</v>
       </c>
-      <c r="O38" t="n">
+      <c r="AB38" t="n">
         <v>202.8606</v>
       </c>
-      <c r="P38" t="n">
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="n">
         <v>64.247</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>45221</v>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="n">
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
         <v>8.888500000000001</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>300.4614</v>
+      </c>
+      <c r="G39" t="n">
         <v>8.283300000000001</v>
       </c>
-      <c r="E39" t="n">
+      <c r="H39" t="n">
         <v>8.827400000000001</v>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
+        <v>130.6236</v>
+      </c>
+      <c r="J39" t="n">
+        <v>178.6154</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>239.7292</v>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="n">
+        <v>206.8886</v>
+      </c>
+      <c r="T39" t="n">
         <v>222.6048</v>
       </c>
-      <c r="K39" t="n">
+      <c r="U39" t="n">
+        <v>78.2812</v>
+      </c>
+      <c r="V39" t="n">
         <v>70.8467</v>
       </c>
-      <c r="L39" t="n">
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
         <v>228.334</v>
       </c>
-      <c r="M39" t="n">
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="n">
         <v>264.073</v>
       </c>
-      <c r="N39" t="n">
+      <c r="AA39" t="n">
         <v>251.1585</v>
       </c>
-      <c r="O39" t="n">
+      <c r="AB39" t="n">
         <v>237.5657</v>
       </c>
-      <c r="P39" t="n">
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="n">
         <v>34.8234</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>45226</v>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="n">
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="n">
         <v>11.1361</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>324.0719</v>
+      </c>
+      <c r="G40" t="n">
         <v>10.9412</v>
       </c>
-      <c r="E40" t="n">
+      <c r="H40" t="n">
         <v>19.0238</v>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
+        <v>11.5072</v>
+      </c>
+      <c r="J40" t="n">
+        <v>220.0248</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>238.4657</v>
       </c>
-      <c r="I40" t="n">
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
+      <c r="S40" t="n">
+        <v>354.9278</v>
+      </c>
+      <c r="T40" t="n">
         <v>310.4867</v>
       </c>
-      <c r="K40" t="n">
+      <c r="U40" t="n">
+        <v>10.6901</v>
+      </c>
+      <c r="V40" t="n">
         <v>317.4857</v>
       </c>
-      <c r="L40" t="n">
+      <c r="W40" t="n">
+        <v>9.449400000000001</v>
+      </c>
+      <c r="X40" t="n">
         <v>269.5888</v>
       </c>
-      <c r="M40" t="n">
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="n">
         <v>297.3</v>
       </c>
-      <c r="N40" t="n">
+      <c r="AA40" t="n">
         <v>235.5441</v>
       </c>
-      <c r="O40" t="n">
+      <c r="AB40" t="n">
         <v>279.793</v>
       </c>
-      <c r="P40" t="n">
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="n">
         <v>41.0562</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>45228</v>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="n">
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="n">
         <v>5.1827</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>212.165</v>
+      </c>
+      <c r="G41" t="n">
         <v>4.5322</v>
       </c>
-      <c r="E41" t="n">
+      <c r="H41" t="n">
         <v>6.2867</v>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
+        <v>120.1795</v>
+      </c>
+      <c r="J41" t="n">
+        <v>134.8733</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>172.4125</v>
       </c>
-      <c r="I41" t="n">
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="n">
         <v>26.8491</v>
       </c>
-      <c r="J41" t="n">
+      <c r="S41" t="n">
+        <v>201.546</v>
+      </c>
+      <c r="T41" t="n">
         <v>252.0393</v>
       </c>
-      <c r="K41" t="n">
+      <c r="U41" t="n">
+        <v>6.9406</v>
+      </c>
+      <c r="V41" t="n">
         <v>135.6636</v>
       </c>
-      <c r="L41" t="n">
+      <c r="W41" t="n">
+        <v>248.003</v>
+      </c>
+      <c r="X41" t="n">
         <v>174.5574</v>
       </c>
-      <c r="M41" t="n">
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="n">
         <v>154.0196</v>
       </c>
-      <c r="N41" t="n">
+      <c r="AA41" t="n">
         <v>185.1216</v>
       </c>
-      <c r="O41" t="n">
+      <c r="AB41" t="n">
         <v>169.2646</v>
       </c>
-      <c r="P41" t="n">
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="n">
         <v>56.7426</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>45232</v>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="n">
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="n">
         <v>4.5051</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>242.9462</v>
+      </c>
+      <c r="G42" t="n">
         <v>6.193</v>
       </c>
-      <c r="E42" t="n">
+      <c r="H42" t="n">
         <v>7.0855</v>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
+        <v>205.5851</v>
+      </c>
+      <c r="J42" t="n">
+        <v>158.8314</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>201.5968</v>
       </c>
-      <c r="I42" t="n">
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="n">
         <v>12.6552</v>
       </c>
-      <c r="J42" t="n">
+      <c r="S42" t="n">
+        <v>282.178</v>
+      </c>
+      <c r="T42" t="n">
         <v>252.3214</v>
       </c>
-      <c r="K42" t="n">
+      <c r="U42" t="n">
+        <v>6.6224</v>
+      </c>
+      <c r="V42" t="n">
         <v>152.0664</v>
       </c>
-      <c r="L42" t="n">
+      <c r="W42" t="n">
+        <v>22.4007</v>
+      </c>
+      <c r="X42" t="n">
         <v>223.4411</v>
       </c>
-      <c r="M42" t="n">
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="n">
         <v>242.6209</v>
       </c>
-      <c r="N42" t="n">
+      <c r="AA42" t="n">
         <v>170.2399</v>
       </c>
-      <c r="O42" t="n">
+      <c r="AB42" t="n">
         <v>227.4569</v>
       </c>
-      <c r="P42" t="n">
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="n">
         <v>33.8358</v>
       </c>
+      <c r="AF42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>45396</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="n">
         <v>172.3817</v>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="n">
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
         <v>169.4077</v>
       </c>
-      <c r="E43" t="n">
+      <c r="H43" t="n">
         <v>170.9403</v>
       </c>
-      <c r="F43" t="n">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
         <v>168.0113</v>
       </c>
-      <c r="G43" t="n">
+      <c r="L43" t="n">
         <v>138.7081</v>
       </c>
-      <c r="H43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>169.6479</v>
       </c>
-      <c r="I43" t="n">
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="n">
         <v>172.9697</v>
       </c>
-      <c r="J43" t="n">
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="n">
         <v>210.7184</v>
       </c>
-      <c r="K43" t="n">
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="n">
         <v>175.9493</v>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="n">
         <v>177.79</v>
       </c>
-      <c r="N43" t="n">
+      <c r="AA43" t="n">
         <v>180.1743</v>
       </c>
-      <c r="O43" t="n">
+      <c r="AB43" t="n">
         <v>212.6601</v>
       </c>
-      <c r="P43" t="n">
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="n">
         <v>53.447</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2182,38 +3672,54 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="n">
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
         <v>215.9457</v>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="n">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
         <v>165.6562</v>
       </c>
-      <c r="H44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>162.5385</v>
       </c>
-      <c r="I44" t="n">
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="n">
         <v>125.266</v>
       </c>
-      <c r="J44" t="n">
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="n">
         <v>193.5114</v>
       </c>
-      <c r="K44" t="n">
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="n">
         <v>140.5807</v>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="n">
         <v>208.8645</v>
       </c>
-      <c r="N44" t="n">
+      <c r="AA44" t="n">
         <v>161.5973</v>
       </c>
-      <c r="O44" t="n">
+      <c r="AB44" t="n">
         <v>205.787</v>
       </c>
-      <c r="P44" t="n">
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="n">
         <v>76.99339999999999</v>
       </c>
+      <c r="AF44" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
